--- a/data_and_analysis/Apogee vs OF.xlsx
+++ b/data_and_analysis/Apogee vs OF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DarkMatter_Jr\data_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479EB1C-5FFE-4470-A104-ACCFC4F3651B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F0F80-8258-4D3B-9DDF-9651FE84CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50C21AE2-FAC0-4D2F-A58A-BEE4F0BB4DEC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50C21AE2-FAC0-4D2F-A58A-BEE4F0BB4DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Pcc = 350</a:t>
+              <a:t> Pcc = 350, 90% Efficiency</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1340,10 +1340,10 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1671,7 +1671,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
